--- a/02-Conceptual Data Model/rpam/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual Data Model/rpam/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM\RPaM-Ontology1.1\02-Vocabularies\RPaM\MS-RPaM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbotapor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
     <sheet name="RPaM" sheetId="3" r:id="rId2"/>
-    <sheet name="ES" sheetId="1" r:id="rId3"/>
-    <sheet name="AT" sheetId="4" r:id="rId4"/>
-    <sheet name="BE" sheetId="5" r:id="rId5"/>
-    <sheet name="NL" sheetId="6" r:id="rId6"/>
-    <sheet name="FI" sheetId="7" r:id="rId7"/>
+    <sheet name="AT" sheetId="4" r:id="rId3"/>
+    <sheet name="BE" sheetId="5" r:id="rId4"/>
+    <sheet name="ES" sheetId="1" r:id="rId5"/>
+    <sheet name="FI" sheetId="7" r:id="rId6"/>
+    <sheet name="NL" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="377">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -717,12 +717,6 @@
     <t>Une période de validité : un trimestre de début et un trimestre de fin (optionnel) qui définissent la période de validité du mandat.</t>
   </si>
   <si>
-    <t>l’entité donnant le mandat à une autre entité. Le mandant doit être identifié de manière unique dans une source authentique. Actuellement, les employeurs ONSS et ORPSS sont considérés comme possibles mandants au sein de l’application.</t>
-  </si>
-  <si>
-    <t>l’entité recevant le mandat d’une autre entité. Le mandataire doit être identifié de manière unique dans une source authentique. Actuellement, les secrétariats sociaux agréés, les prestataires de services sociaux et les prestataires de services PPL sont considérés comme possible mandataires au sein de l’application.</t>
-  </si>
-  <si>
     <t>Délégation</t>
   </si>
   <si>
@@ -768,9 +762,6 @@
     <t>xs:unsignedLong</t>
   </si>
   <si>
-    <t>xs:string</t>
-  </si>
-  <si>
     <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/CodApoderamientoINT</t>
   </si>
   <si>
@@ -817,6 +808,360 @@
   </si>
   <si>
     <t>xs:string [200]</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/IdentificacionPF</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Nombre</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Apellido1</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Apellido2</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Email</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Telefono</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Domicilio</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/IdentificacionPJ</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/RazonSocial</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/Email</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/Telefono</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/Domicilio</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/Representante</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosApoderado/Representante</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/ListaAnexos</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/ListaAnexos/NombreDocumento</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/ListaAnexos/TipoDocumento</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/ListaAnexos/CSV</t>
+  </si>
+  <si>
+    <t>Secure document verification code</t>
+  </si>
+  <si>
+    <t>Type of anex's document</t>
+  </si>
+  <si>
+    <t>Name of the anex's document</t>
+  </si>
+  <si>
+    <t>xs:string [2]</t>
+  </si>
+  <si>
+    <t>Period of validity of the mandate.</t>
+  </si>
+  <si>
+    <t>Current status of the mandate.</t>
+  </si>
+  <si>
+    <t>Mandate Type.</t>
+  </si>
+  <si>
+    <t>Identificador único de apoderamiento en REA externo.</t>
+  </si>
+  <si>
+    <t>Identificador único de apoderamiento en el REA del MINHAP.</t>
+  </si>
+  <si>
+    <t>Information about the mandator.</t>
+  </si>
+  <si>
+    <t>Information about the mandatee.</t>
+  </si>
+  <si>
+    <t>Information list of the annexes associated with the mandate.</t>
+  </si>
+  <si>
+    <t>Information about the natural person.</t>
+  </si>
+  <si>
+    <t>Information about the legal person.</t>
+  </si>
+  <si>
+    <t>First surname of the NP</t>
+  </si>
+  <si>
+    <t>Firsrt name of the NP</t>
+  </si>
+  <si>
+    <t>Second surname of the NP</t>
+  </si>
+  <si>
+    <t>email address of the NP</t>
+  </si>
+  <si>
+    <t>Phone number of the NP</t>
+  </si>
+  <si>
+    <t>Postal address of the NP</t>
+  </si>
+  <si>
+    <t>NIF or NIE of the NP</t>
+  </si>
+  <si>
+    <t>Official name of the LP</t>
+  </si>
+  <si>
+    <t>email address of the LP</t>
+  </si>
+  <si>
+    <t>Phone number of the LP</t>
+  </si>
+  <si>
+    <t>Postal address of the LP</t>
+  </si>
+  <si>
+    <t>Error type code</t>
+  </si>
+  <si>
+    <t>Information of the error of the LP</t>
+  </si>
+  <si>
+    <t>Xs:string [40]</t>
+  </si>
+  <si>
+    <t>xs:string [100]</t>
+  </si>
+  <si>
+    <t>xs:string [20]</t>
+  </si>
+  <si>
+    <t>xs:string [50]</t>
+  </si>
+  <si>
+    <t>CIF entity number with or without legal personality.</t>
+  </si>
+  <si>
+    <t>xs:string [10]</t>
+  </si>
+  <si>
+    <t>xs:string [9]</t>
+  </si>
+  <si>
+    <t>MandateIssueRresponse/SessionID</t>
+  </si>
+  <si>
+    <t>MandateIssueRresponse/GuiRedirectURL</t>
+  </si>
+  <si>
+    <t>MandateIssueRresponse/Mandates/Mandate/ProfessionalRepresentative</t>
+  </si>
+  <si>
+    <t>MandateIssueRresponse/Mandates/Mandate</t>
+  </si>
+  <si>
+    <t>MandateIssueRresponse/Mandates/Mandate/OWbPK</t>
+  </si>
+  <si>
+    <t>MandateIssueRresponse/Error</t>
+  </si>
+  <si>
+    <t>MandateIssueRresponse/Error/Code</t>
+  </si>
+  <si>
+    <t>MandateIssueRresponse/Error/Text</t>
+  </si>
+  <si>
+    <t>This is a mandatory element and contains the session ID of the session object assigned to the client.</t>
+  </si>
+  <si>
+    <t>This is a mandatory element and contains the URL to which the client must forward the representative for the power. This is a GUI service that is operated in the domain of the MIS service.</t>
+  </si>
+  <si>
+    <t>The error number.</t>
+  </si>
+  <si>
+    <t>Textual description of the error.</t>
+  </si>
+  <si>
+    <t>The optional attribute OWbPK contains the area-specific personal indicator of an organ administrator who intervenes.</t>
+  </si>
+  <si>
+    <t>The optional attribute ProfessionalRepresentative is set in case of intervention of an administrative officer or professional party representative and contains the OID of the professional group, i.e. the attribute set in the signature certificate of the representative.</t>
+  </si>
+  <si>
+    <t>This is a mandatory element and contains a list of additional mandate elements. The scheme provides that a representative could potentially select several powers.</t>
+  </si>
+  <si>
+    <t>eMandateResponse</t>
+  </si>
+  <si>
+    <t>eMandateResponse/eMandateID</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ResultadoError</t>
+  </si>
+  <si>
+    <t>Control data</t>
+  </si>
+  <si>
+    <t>The error of the response process.</t>
+  </si>
+  <si>
+    <t>L’entité recevant le mandat d’une autre entité. Le mandataire doit être identifié de manière unique dans une source authentique. Actuellement, les secrétariats sociaux agréés, les prestataires de services sociaux et les prestataires de services PPL sont considérés comme possible mandataires au sein de l’application.</t>
+  </si>
+  <si>
+    <t>L’entité donnant le mandat à une autre entité. Le mandant doit être identifié de manière unique dans une source authentique. Actuellement, les employeurs ONSS et ORPSS sont considérés comme possibles mandants au sein de l’application.</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/hasPower/Power/Type</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/hasPower/Power/Identifier</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/hasPower/Power/statusType</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/hasPower/Power/GeospatialConstraint</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/hasPower/Power/FinancialTheresholdConstraint</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/hasPower/Power/CurrentDelegationLevel</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/hasPower/Power/powerOf/Mandator</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/hasPower/Power/powerOf/Mandator/ID</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/hasPower/Power/assignedTo/Mandatee</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/hasPower/Power/assignedTo/Mandatee/ID</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/validityPeriodConstraint/ubl:Period</t>
+  </si>
+  <si>
+    <t>The identifier(s) of the eMandate.</t>
+  </si>
+  <si>
+    <t>eMandateResponse/Mandate/ID</t>
+  </si>
+  <si>
+    <t>Identification data of the Mandatee.</t>
+  </si>
+  <si>
+    <t>Détail du mandat</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/PériodeDeValidité</t>
+  </si>
+  <si>
+    <t>Contains the specfic data of the mandate.</t>
+  </si>
+  <si>
+    <t>Contains the applications included in the mandate.</t>
+  </si>
+  <si>
+    <t>Délégations émises</t>
+  </si>
+  <si>
+    <t>Consultation</t>
+  </si>
+  <si>
+    <t>Contains the delegations issued by the current agent from the mandate. Each delegation can be consulted and allows to consult the details of the delegation and the information of the current and delegated agents.</t>
+  </si>
+  <si>
+    <t>Délégations reçues</t>
+  </si>
+  <si>
+    <t>Contains the delegations received by the delegated agent for the mandate. Each delegation can be consulted and allows to consult the details of the delegation and the information of the current and delegated agents.</t>
+  </si>
+  <si>
+    <t>Identification data of the Mandator.</t>
+  </si>
+  <si>
+    <t>Mandataire/NuméroDuMandataire</t>
+  </si>
+  <si>
+    <t>Mandataire/NºSSA</t>
+  </si>
+  <si>
+    <t>Mandataire/Dénomination</t>
+  </si>
+  <si>
+    <t>Mandant/Dénomination</t>
+  </si>
+  <si>
+    <t>Mandant/Matricule ONSS</t>
+  </si>
+  <si>
+    <t>Mandant/NuméroDEnterprise</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/ObjetDuMandat</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/DonnéesSignalétiquesDuMandant</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/DonnéesSignalétiquesDuMandataire</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/PériodeDeValidité/TrimestreDeDébut</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/PériodeDeValidité/TrimestreDeFin</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/ObjetDuMandat/DRSIndemnités</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/EtatEtStatutDuMandat</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/EtatEtStatutDuMandat/EtatDuMandat</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/EtatEtStatutDuMandat/StatutDuMandat</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/EtatEtStatutDuMandat/DateDeCréation</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/EtatEtStatutDuMandat/DateDeRéceptionDeLaProcuration</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/EtatEtStatutDuMandat/DateDeModification</t>
+  </si>
+  <si>
+    <t>DétailDuMandat/EtatEtStatutDuMandat/DateDeValidationDuMandat</t>
   </si>
 </sst>
 </file>
@@ -901,7 +1246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1041,12 +1386,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1149,6 +1597,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,6 +1647,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1479,109 +1954,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N21"/>
+  <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5703125" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
     <col min="10" max="14" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+    </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="B3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>170</v>
-      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="35"/>
       <c r="L5" s="35"/>
-      <c r="M5" s="37"/>
+      <c r="M5" s="35"/>
       <c r="N5" s="35"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1589,110 +2093,104 @@
         <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J6" s="37" t="s">
         <v>43</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="I7" s="15"/>
       <c r="J7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="38"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="37" t="s">
-        <v>43</v>
-      </c>
+      <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>15</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="13"/>
       <c r="G9" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="37"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="35"/>
     </row>
@@ -1701,119 +2199,119 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="37"/>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="35"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="37"/>
-    </row>
-    <row r="12" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="37"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
     </row>
     <row r="14" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="5" t="s">
@@ -1822,56 +2320,60 @@
       <c r="H14" s="21"/>
       <c r="I14" s="41"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
     </row>
-    <row r="15" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="21"/>
+      <c r="C15" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="13"/>
       <c r="E15" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="21"/>
+        <v>176</v>
+      </c>
+      <c r="F15" s="13"/>
       <c r="G15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E16" s="21" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="G16" s="14"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="35" t="s">
+      <c r="I16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="37" t="s">
         <v>43</v>
       </c>
       <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
     </row>
@@ -1880,46 +2382,52 @@
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>43</v>
+        <v>79</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="H17" s="13"/>
-      <c r="I17" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="35"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="37"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="E18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="37"/>
+        <v>46</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
@@ -1930,10 +2438,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>21</v>
@@ -1944,11 +2452,9 @@
       <c r="G19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>164</v>
-      </c>
+      <c r="H19" s="13"/>
       <c r="I19" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J19" s="37" t="s">
         <v>43</v>
@@ -1956,76 +2462,382 @@
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="N19" s="35"/>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="68"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="68"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="37" t="s">
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="35"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="D34" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E34" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F34" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G34" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="35"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2034,779 +2846,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O34"/>
+  <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="101.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="10">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="14">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="F24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D29" s="21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D30" s="21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>258</v>
-      </c>
-      <c r="F33" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="B3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G49" sqref="D49:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
@@ -2815,22 +2871,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="59" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -2853,7 +2909,7 @@
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="57" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="22" t="s">
@@ -3784,6 +3840,204 @@
       <c r="N38" s="18"/>
       <c r="O38" s="32"/>
     </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="15"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="13"/>
+      <c r="M41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N41" s="13"/>
+      <c r="O41" s="15"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="15"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="15"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="15"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="15"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="17"/>
+      <c r="C46" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
@@ -3793,18 +4047,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O14"/>
+  <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3817,22 +4073,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="59" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -3942,10 +4198,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -3977,7 +4233,7 @@
         <v>162</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -4008,10 +4264,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -4047,7 +4303,7 @@
         <v>163</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -4078,10 +4334,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -4112,7 +4368,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4132,7 +4388,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4152,10 +4408,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -4171,30 +4427,545 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="18" t="s">
+      <c r="D14" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="20" t="s">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="16" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="15"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="15"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="17"/>
+      <c r="C39" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="32"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4206,12 +4977,1880 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O53"/>
+  <sheetViews>
+    <sheetView topLeftCell="D13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="77.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="60"/>
+      <c r="H21" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="26">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="26">
+        <v>1</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="26">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="26">
+        <v>1</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="26">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="26">
+        <v>1</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="13"/>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="26">
+        <v>1</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" s="13"/>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="26">
+        <v>1</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="15"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="15"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="15"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="15"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="15"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" s="13"/>
+      <c r="O43" s="15"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N44" s="13"/>
+      <c r="O44" s="15"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="15"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="15"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="26">
+        <v>1</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="15"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+      <c r="C48" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="26">
+        <v>1</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="15"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="15"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+      <c r="C50" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="26">
+        <v>1</v>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="15"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+      <c r="C51" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="15"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+      <c r="C52" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="26">
+        <v>1</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="15"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="17"/>
+      <c r="C53" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="G53" s="18"/>
+      <c r="H53" s="31">
+        <v>1</v>
+      </c>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="10" max="10" width="55.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="O11" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4233,22 +6872,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="60" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -4880,330 +7519,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="10" max="10" width="55.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:M2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/02-Conceptual Data Model/rpam/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Conceptual Data Model/rpam/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbotapor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology_v1.1\02-Conceptual Data Model\rpam\MS-RPaM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1623,6 +1623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1632,22 +1633,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1975,23 +1975,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
       <c r="H2" s="43"/>
       <c r="I2" s="44"/>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -2565,7 +2565,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="62"/>
-      <c r="K23" s="82"/>
+      <c r="K23" s="74"/>
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
       <c r="N23" s="62"/>
@@ -2727,7 +2727,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="82"/>
+      <c r="J30" s="74"/>
       <c r="K30" s="62"/>
       <c r="L30" s="62"/>
       <c r="M30" s="62"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="82"/>
+      <c r="J31" s="74"/>
       <c r="K31" s="62"/>
       <c r="L31" s="62"/>
       <c r="M31" s="62"/>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="82"/>
+      <c r="J32" s="74"/>
       <c r="K32" s="62"/>
       <c r="L32" s="62"/>
       <c r="M32" s="62"/>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="82"/>
+      <c r="J33" s="74"/>
       <c r="K33" s="62"/>
       <c r="L33" s="62"/>
       <c r="M33" s="62"/>
@@ -2871,22 +2871,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="77" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -4073,22 +4073,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="77" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -5004,22 +5004,22 @@
   <sheetData>
     <row r="1" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="77" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -6544,22 +6544,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="77" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -6850,7 +6850,7 @@
   <dimension ref="B2:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6872,22 +6872,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="78" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
